--- a/medicine/Mort/Cimetière_impérial_Musashi/Cimetière_impérial_Musashi.xlsx
+++ b/medicine/Mort/Cimetière_impérial_Musashi/Cimetière_impérial_Musashi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_imp%C3%A9rial_Musashi</t>
+          <t>Cimetière_impérial_Musashi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière impérial Musashi (武蔵陵墓地, Musashi ryōbochi?) est un ensemble de mausolées situé à Hachiōji dans la préfecture de Tokyo. Il contient les mausolées de l'empereur Taishō, de l'impératrice Teimei, de l'empereur Shōwa (Hirohito) et de l'impératrice Kōjun[1]. Les quatre mausolées sont respectivement, Tama no Misasagi (多摩陵?)[2], Tama no Higashi no Misasagi (多摩東陵?)[1] Musashino no Misasagi (武藏野陵?)[3],[4],[5] et Musashino no Higashi no Misasagi (武藏野東陵?)[1],[6]. L'approche en provenance du Kōshū Kaidō est bordée de zelkova et les mausolées sont plantés de cryptomeria[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière impérial Musashi (武蔵陵墓地, Musashi ryōbochi?) est un ensemble de mausolées situé à Hachiōji dans la préfecture de Tokyo. Il contient les mausolées de l'empereur Taishō, de l'impératrice Teimei, de l'empereur Shōwa (Hirohito) et de l'impératrice Kōjun. Les quatre mausolées sont respectivement, Tama no Misasagi (多摩陵?), Tama no Higashi no Misasagi (多摩東陵?) Musashino no Misasagi (武藏野陵?) et Musashino no Higashi no Misasagi (武藏野東陵?),. L'approche en provenance du Kōshū Kaidō est bordée de zelkova et les mausolées sont plantés de cryptomeria.
 </t>
         </is>
       </c>
